--- a/inst/download/2023-04-03_HealthCanada_Opioid_Table.xlsx
+++ b/inst/download/2023-04-03_HealthCanada_Opioid_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="1569">
   <si>
     <t xml:space="preserve">DIN</t>
   </si>
@@ -503,12 +503,12 @@
     <t xml:space="preserve">180041</t>
   </si>
   <si>
+    <t xml:space="preserve">ACETYLSALICYLIC ACID CAFFEINE &amp; 8MG COD PHOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">A.C. &amp; C 8MG TAB</t>
   </si>
   <si>
-    <t xml:space="preserve">ACETYLSALICYLIC ACID CAFFEINE &amp; 8MG COD PHOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">815349</t>
   </si>
   <si>
@@ -3762,6 +3762,9 @@
   </si>
   <si>
     <t xml:space="preserve">2360411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
   </si>
   <si>
     <t xml:space="preserve">TAPENTADOL 200 MG</t>
@@ -29982,7 +29985,7 @@
         <v>20</v>
       </c>
       <c r="F510" t="s">
-        <v>1173</v>
+        <v>558</v>
       </c>
       <c r="G510" t="s">
         <v>34</v>
@@ -30030,7 +30033,7 @@
         <v>20</v>
       </c>
       <c r="F511" t="s">
-        <v>558</v>
+        <v>1173</v>
       </c>
       <c r="G511" t="s">
         <v>34</v>
@@ -30990,7 +30993,7 @@
         <v>1203</v>
       </c>
       <c r="B531" t="s">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="C531"/>
       <c r="D531" t="s">
@@ -31012,19 +31015,19 @@
         <v>1199</v>
       </c>
       <c r="J531" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="K531" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="L531" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="M531" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="N531" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
       <c r="O531" t="s">
         <v>29</v>
@@ -31870,7 +31873,7 @@
         <v>1242</v>
       </c>
       <c r="B549" t="s">
-        <v>377</v>
+        <v>117</v>
       </c>
       <c r="C549" t="s">
         <v>18</v>
@@ -31894,19 +31897,19 @@
         <v>1244</v>
       </c>
       <c r="J549" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="K549" t="s">
-        <v>139</v>
+        <v>357</v>
       </c>
       <c r="L549" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="M549" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="N549" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="O549" t="s">
         <v>94</v>
@@ -31920,7 +31923,7 @@
         <v>1245</v>
       </c>
       <c r="B550" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C550" t="s">
         <v>18</v>
@@ -31944,19 +31947,19 @@
         <v>1244</v>
       </c>
       <c r="J550" t="s">
+        <v>18</v>
+      </c>
+      <c r="K550" t="s">
         <v>109</v>
       </c>
-      <c r="K550" t="s">
-        <v>178</v>
-      </c>
       <c r="L550" t="s">
+        <v>99</v>
+      </c>
+      <c r="M550" t="s">
         <v>110</v>
       </c>
-      <c r="M550" t="s">
-        <v>179</v>
-      </c>
       <c r="N550" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="O550" t="s">
         <v>29</v>
@@ -31970,7 +31973,7 @@
         <v>1247</v>
       </c>
       <c r="B551" t="s">
-        <v>1122</v>
+        <v>151</v>
       </c>
       <c r="C551" t="s">
         <v>18</v>
@@ -32020,7 +32023,7 @@
         <v>1249</v>
       </c>
       <c r="B552" t="s">
-        <v>151</v>
+        <v>1250</v>
       </c>
       <c r="C552" t="s">
         <v>18</v>
@@ -32032,7 +32035,7 @@
         <v>20</v>
       </c>
       <c r="F552" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G552" t="s">
         <v>34</v>
@@ -32047,7 +32050,7 @@
         <v>18</v>
       </c>
       <c r="K552" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="L552" t="s">
         <v>99</v>
@@ -32067,10 +32070,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B553" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="C553" t="s">
         <v>18</v>
@@ -32082,7 +32085,7 @@
         <v>20</v>
       </c>
       <c r="F553" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G553" t="s">
         <v>34</v>
@@ -32094,19 +32097,19 @@
         <v>1244</v>
       </c>
       <c r="J553" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="K553" t="s">
         <v>18</v>
       </c>
       <c r="L553" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="M553" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="N553" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="O553" t="s">
         <v>29</v>
@@ -32117,7 +32120,7 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B554" t="s">
         <v>96</v>
@@ -32139,7 +32142,7 @@
         <v>23</v>
       </c>
       <c r="I554" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="J554" t="s">
         <v>99</v>
@@ -32165,7 +32168,7 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B555" t="s">
         <v>113</v>
@@ -32189,7 +32192,7 @@
         <v>23</v>
       </c>
       <c r="I555" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="J555" t="s">
         <v>116</v>
@@ -32215,7 +32218,7 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B556" t="s">
         <v>32</v>
@@ -32237,7 +32240,7 @@
         <v>23</v>
       </c>
       <c r="I556" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="J556" t="s">
         <v>36</v>
@@ -32263,7 +32266,7 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B557" t="s">
         <v>197</v>
@@ -32287,7 +32290,7 @@
         <v>23</v>
       </c>
       <c r="I557" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="J557" t="s">
         <v>139</v>
@@ -32313,7 +32316,7 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B558" t="s">
         <v>191</v>
@@ -32337,7 +32340,7 @@
         <v>23</v>
       </c>
       <c r="I558" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="J558" t="s">
         <v>178</v>
@@ -32363,7 +32366,7 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B559" t="s">
         <v>175</v>
@@ -32387,7 +32390,7 @@
         <v>23</v>
       </c>
       <c r="I559" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="J559" t="s">
         <v>109</v>
@@ -32413,7 +32416,7 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B560" t="s">
         <v>313</v>
@@ -32437,7 +32440,7 @@
         <v>23</v>
       </c>
       <c r="I560" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="J560" t="s">
         <v>357</v>
@@ -32463,7 +32466,7 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B561" t="s">
         <v>1209</v>
@@ -32487,7 +32490,7 @@
         <v>23</v>
       </c>
       <c r="I561" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="J561" t="s">
         <v>109</v>
@@ -32513,10 +32516,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B562" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C562" t="s">
         <v>18</v>
@@ -32528,7 +32531,7 @@
         <v>20</v>
       </c>
       <c r="F562" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G562" t="s">
         <v>22</v>
@@ -32537,7 +32540,7 @@
         <v>23</v>
       </c>
       <c r="I562" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="J562" t="s">
         <v>18</v>
@@ -32563,7 +32566,7 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B563" t="s">
         <v>1215</v>
@@ -32587,7 +32590,7 @@
         <v>23</v>
       </c>
       <c r="I563" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="J563" t="s">
         <v>18</v>
@@ -32613,7 +32616,7 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B564" t="s">
         <v>1218</v>
@@ -32637,7 +32640,7 @@
         <v>23</v>
       </c>
       <c r="I564" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="J564" t="s">
         <v>18</v>
@@ -32663,7 +32666,7 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B565" t="s">
         <v>1221</v>
@@ -32687,7 +32690,7 @@
         <v>23</v>
       </c>
       <c r="I565" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="J565" t="s">
         <v>249</v>
@@ -32713,7 +32716,7 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B566" t="s">
         <v>86</v>
@@ -32737,7 +32740,7 @@
         <v>23</v>
       </c>
       <c r="I566" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="J566" t="s">
         <v>89</v>
@@ -32763,10 +32766,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B567" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C567"/>
       <c r="D567" t="s">
@@ -32788,19 +32791,19 @@
         <v>1086</v>
       </c>
       <c r="J567" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="K567" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="L567" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="M567" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="N567" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="O567" t="s">
         <v>29</v>
@@ -32811,7 +32814,7 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B568" t="s">
         <v>377</v>
@@ -32859,7 +32862,7 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B569" t="s">
         <v>111</v>
@@ -32907,7 +32910,7 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B570" t="s">
         <v>500</v>
@@ -32955,7 +32958,7 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B571" t="s">
         <v>377</v>
@@ -32977,7 +32980,7 @@
         <v>228</v>
       </c>
       <c r="I571" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="J571" t="s">
         <v>178</v>
@@ -33003,7 +33006,7 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B572" t="s">
         <v>527</v>
@@ -33025,7 +33028,7 @@
         <v>228</v>
       </c>
       <c r="I572" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="J572" t="s">
         <v>109</v>
@@ -33051,7 +33054,7 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B573" t="s">
         <v>1122</v>
@@ -33073,7 +33076,7 @@
         <v>228</v>
       </c>
       <c r="I573" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="J573" t="s">
         <v>18</v>
@@ -33099,7 +33102,7 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B574" t="s">
         <v>151</v>
@@ -33121,7 +33124,7 @@
         <v>228</v>
       </c>
       <c r="I574" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="J574" t="s">
         <v>18</v>
@@ -33147,7 +33150,7 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B575" t="s">
         <v>195</v>
@@ -33169,7 +33172,7 @@
         <v>228</v>
       </c>
       <c r="I575" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="J575" t="s">
         <v>18</v>
@@ -33195,7 +33198,7 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B576" t="s">
         <v>500</v>
@@ -33217,7 +33220,7 @@
         <v>228</v>
       </c>
       <c r="I576" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="J576" t="s">
         <v>249</v>
@@ -33243,7 +33246,7 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B577" t="s">
         <v>111</v>
@@ -33265,7 +33268,7 @@
         <v>228</v>
       </c>
       <c r="I577" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="J577" t="s">
         <v>109</v>
@@ -33291,7 +33294,7 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B578" t="s">
         <v>36</v>
@@ -33313,7 +33316,7 @@
         <v>384</v>
       </c>
       <c r="I578" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="J578" t="s">
         <v>32</v>
@@ -33339,7 +33342,7 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B579" t="s">
         <v>117</v>
@@ -33361,7 +33364,7 @@
         <v>384</v>
       </c>
       <c r="I579" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="J579" t="s">
         <v>109</v>
@@ -33387,7 +33390,7 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B580" t="s">
         <v>111</v>
@@ -33409,7 +33412,7 @@
         <v>384</v>
       </c>
       <c r="I580" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="J580" t="s">
         <v>109</v>
@@ -33435,7 +33438,7 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B581" t="s">
         <v>111</v>
@@ -33457,7 +33460,7 @@
         <v>228</v>
       </c>
       <c r="I581" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="J581" t="s">
         <v>109</v>
@@ -33483,7 +33486,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B582" t="s">
         <v>151</v>
@@ -33505,7 +33508,7 @@
         <v>228</v>
       </c>
       <c r="I582" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="J582" t="s">
         <v>18</v>
@@ -33531,7 +33534,7 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B583" t="s">
         <v>127</v>
@@ -33555,7 +33558,7 @@
         <v>59</v>
       </c>
       <c r="I583" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="J583" t="s">
         <v>130</v>
@@ -33581,7 +33584,7 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B584" t="s">
         <v>323</v>
@@ -33596,7 +33599,7 @@
         <v>52</v>
       </c>
       <c r="F584" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G584" t="s">
         <v>34</v>
@@ -33605,7 +33608,7 @@
         <v>59</v>
       </c>
       <c r="I584" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="J584" t="s">
         <v>326</v>
@@ -33631,7 +33634,7 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B585" t="s">
         <v>547</v>
@@ -33655,7 +33658,7 @@
         <v>247</v>
       </c>
       <c r="I585" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="J585" t="s">
         <v>18</v>
@@ -33681,7 +33684,7 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B586" t="s">
         <v>143</v>
@@ -33705,7 +33708,7 @@
         <v>247</v>
       </c>
       <c r="I586" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="J586" t="s">
         <v>249</v>
@@ -33731,7 +33734,7 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B587" t="s">
         <v>251</v>
@@ -33755,7 +33758,7 @@
         <v>247</v>
       </c>
       <c r="I587" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="J587" t="s">
         <v>249</v>
@@ -33781,7 +33784,7 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B588" t="s">
         <v>40</v>
@@ -33805,7 +33808,7 @@
         <v>247</v>
       </c>
       <c r="I588" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="J588" t="s">
         <v>249</v>
@@ -33831,7 +33834,7 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B589" t="s">
         <v>258</v>
@@ -33855,7 +33858,7 @@
         <v>247</v>
       </c>
       <c r="I589" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="J589" t="s">
         <v>249</v>
@@ -33881,7 +33884,7 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B590" t="s">
         <v>17</v>
@@ -33905,7 +33908,7 @@
         <v>107</v>
       </c>
       <c r="I590" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="J590" t="s">
         <v>17</v>
@@ -33931,7 +33934,7 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B591" t="s">
         <v>17</v>
@@ -33981,12 +33984,14 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B592" t="s">
-        <v>377</v>
-      </c>
-      <c r="C592"/>
+        <v>117</v>
+      </c>
+      <c r="C592" t="s">
+        <v>18</v>
+      </c>
       <c r="D592" t="s">
         <v>19</v>
       </c>
@@ -34003,22 +34008,22 @@
         <v>369</v>
       </c>
       <c r="I592" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="J592" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="K592" t="s">
-        <v>139</v>
+        <v>357</v>
       </c>
       <c r="L592" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="M592" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="N592" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="O592" t="s">
         <v>94</v>
@@ -34029,12 +34034,14 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B593" t="s">
-        <v>527</v>
-      </c>
-      <c r="C593"/>
+        <v>111</v>
+      </c>
+      <c r="C593" t="s">
+        <v>18</v>
+      </c>
       <c r="D593" t="s">
         <v>19</v>
       </c>
@@ -34042,7 +34049,7 @@
         <v>20</v>
       </c>
       <c r="F593" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G593" t="s">
         <v>34</v>
@@ -34051,13 +34058,13 @@
         <v>369</v>
       </c>
       <c r="I593" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="J593" t="s">
         <v>109</v>
       </c>
       <c r="K593" t="s">
-        <v>357</v>
+        <v>178</v>
       </c>
       <c r="L593" t="s">
         <v>110</v>
@@ -34077,10 +34084,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B594" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C594"/>
       <c r="D594" t="s">
@@ -34099,22 +34106,22 @@
         <v>369</v>
       </c>
       <c r="I594" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="J594" t="s">
+        <v>18</v>
+      </c>
+      <c r="K594" t="s">
         <v>109</v>
       </c>
-      <c r="K594" t="s">
-        <v>178</v>
-      </c>
       <c r="L594" t="s">
+        <v>99</v>
+      </c>
+      <c r="M594" t="s">
         <v>110</v>
       </c>
-      <c r="M594" t="s">
-        <v>179</v>
-      </c>
       <c r="N594" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="O594" t="s">
         <v>94</v>
@@ -34125,7 +34132,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B595" t="s">
         <v>310</v>
@@ -34147,7 +34154,7 @@
         <v>23</v>
       </c>
       <c r="I595" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="J595" t="s">
         <v>313</v>
@@ -34173,7 +34180,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B596" t="s">
         <v>377</v>
@@ -34197,7 +34204,7 @@
         <v>228</v>
       </c>
       <c r="I596" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="J596" t="s">
         <v>178</v>
@@ -34223,7 +34230,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B597" t="s">
         <v>111</v>
@@ -34238,7 +34245,7 @@
         <v>20</v>
       </c>
       <c r="F597" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G597" t="s">
         <v>34</v>
@@ -34247,7 +34254,7 @@
         <v>228</v>
       </c>
       <c r="I597" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="J597" t="s">
         <v>109</v>
@@ -34273,7 +34280,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B598" t="s">
         <v>151</v>
@@ -34288,7 +34295,7 @@
         <v>20</v>
       </c>
       <c r="F598" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G598" t="s">
         <v>34</v>
@@ -34297,7 +34304,7 @@
         <v>228</v>
       </c>
       <c r="I598" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="J598" t="s">
         <v>18</v>
@@ -34323,7 +34330,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B599" t="s">
         <v>500</v>
@@ -34338,7 +34345,7 @@
         <v>20</v>
       </c>
       <c r="F599" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="G599" t="s">
         <v>34</v>
@@ -34347,7 +34354,7 @@
         <v>228</v>
       </c>
       <c r="I599" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="J599" t="s">
         <v>249</v>
@@ -34373,7 +34380,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B600" t="s">
         <v>86</v>
@@ -34395,7 +34402,7 @@
         <v>233</v>
       </c>
       <c r="I600" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="J600" t="s">
         <v>89</v>
@@ -34421,7 +34428,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B601" t="s">
         <v>547</v>
@@ -34445,7 +34452,7 @@
         <v>247</v>
       </c>
       <c r="I601" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="J601" t="s">
         <v>18</v>
@@ -34471,7 +34478,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B602" t="s">
         <v>143</v>
@@ -34495,7 +34502,7 @@
         <v>247</v>
       </c>
       <c r="I602" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="J602" t="s">
         <v>249</v>
@@ -34521,7 +34528,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B603" t="s">
         <v>268</v>
@@ -34545,7 +34552,7 @@
         <v>247</v>
       </c>
       <c r="I603" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="J603" t="s">
         <v>249</v>
@@ -34571,7 +34578,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B604" t="s">
         <v>251</v>
@@ -34595,7 +34602,7 @@
         <v>247</v>
       </c>
       <c r="I604" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="J604" t="s">
         <v>249</v>
@@ -34621,7 +34628,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B605" t="s">
         <v>40</v>
@@ -34645,7 +34652,7 @@
         <v>247</v>
       </c>
       <c r="I605" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="J605" t="s">
         <v>249</v>
@@ -34671,7 +34678,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B606" t="s">
         <v>258</v>
@@ -34695,7 +34702,7 @@
         <v>247</v>
       </c>
       <c r="I606" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="J606" t="s">
         <v>249</v>
@@ -34721,7 +34728,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B607" t="s">
         <v>310</v>
@@ -34743,7 +34750,7 @@
         <v>23</v>
       </c>
       <c r="I607" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="J607" t="s">
         <v>313</v>
@@ -34769,7 +34776,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B608" t="s">
         <v>42</v>
@@ -34793,7 +34800,7 @@
         <v>23</v>
       </c>
       <c r="I608" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="J608" t="s">
         <v>45</v>
@@ -34819,7 +34826,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B609" t="s">
         <v>113</v>
@@ -34841,7 +34848,7 @@
         <v>233</v>
       </c>
       <c r="I609" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="J609" t="s">
         <v>116</v>
@@ -34867,7 +34874,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B610" t="s">
         <v>17</v>
@@ -34915,7 +34922,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B611" t="s">
         <v>17</v>
@@ -34928,7 +34935,7 @@
         <v>20</v>
       </c>
       <c r="F611" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="G611" t="s">
         <v>34</v>
@@ -34963,7 +34970,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B612" t="s">
         <v>310</v>
@@ -34985,7 +34992,7 @@
         <v>23</v>
       </c>
       <c r="I612" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="J612" t="s">
         <v>313</v>
@@ -35011,7 +35018,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B613" t="s">
         <v>310</v>
@@ -35033,7 +35040,7 @@
         <v>23</v>
       </c>
       <c r="I613" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="J613" t="s">
         <v>313</v>
@@ -35059,7 +35066,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B614" t="s">
         <v>310</v>
@@ -35081,7 +35088,7 @@
         <v>23</v>
       </c>
       <c r="I614" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="J614" t="s">
         <v>313</v>
@@ -35107,10 +35114,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B615" t="s">
-        <v>310</v>
+        <v>17</v>
       </c>
       <c r="C615"/>
       <c r="D615" t="s">
@@ -35129,22 +35136,22 @@
         <v>23</v>
       </c>
       <c r="I615" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="J615" t="s">
-        <v>313</v>
+        <v>17</v>
       </c>
       <c r="K615" t="s">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="L615" t="s">
-        <v>315</v>
+        <v>17</v>
       </c>
       <c r="M615" t="s">
-        <v>316</v>
+        <v>17</v>
       </c>
       <c r="N615" t="s">
-        <v>317</v>
+        <v>17</v>
       </c>
       <c r="O615" t="s">
         <v>25</v>
@@ -35155,7 +35162,7 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B616" t="s">
         <v>17</v>
@@ -35177,7 +35184,7 @@
         <v>23</v>
       </c>
       <c r="I616" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="J616" t="s">
         <v>17</v>
@@ -35203,7 +35210,7 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B617" t="s">
         <v>17</v>
@@ -35225,7 +35232,7 @@
         <v>23</v>
       </c>
       <c r="I617" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="J617" t="s">
         <v>17</v>
@@ -35251,7 +35258,7 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B618" t="s">
         <v>17</v>
@@ -35273,7 +35280,7 @@
         <v>23</v>
       </c>
       <c r="I618" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="J618" t="s">
         <v>17</v>
@@ -35299,7 +35306,7 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B619" t="s">
         <v>17</v>
@@ -35321,7 +35328,7 @@
         <v>23</v>
       </c>
       <c r="I619" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="J619" t="s">
         <v>17</v>
@@ -35347,7 +35354,7 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B620" t="s">
         <v>310</v>
@@ -35369,7 +35376,7 @@
         <v>23</v>
       </c>
       <c r="I620" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="J620" t="s">
         <v>313</v>
@@ -35395,7 +35402,7 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B621" t="s">
         <v>310</v>
@@ -35417,7 +35424,7 @@
         <v>23</v>
       </c>
       <c r="I621" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="J621" t="s">
         <v>313</v>
@@ -35443,7 +35450,7 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B622" t="s">
         <v>42</v>
@@ -35465,7 +35472,7 @@
         <v>23</v>
       </c>
       <c r="I622" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="J622" t="s">
         <v>45</v>
@@ -35491,7 +35498,7 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B623" t="s">
         <v>310</v>
@@ -35513,7 +35520,7 @@
         <v>23</v>
       </c>
       <c r="I623" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="J623" t="s">
         <v>313</v>
@@ -35539,7 +35546,7 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B624" t="s">
         <v>96</v>
@@ -35561,7 +35568,7 @@
         <v>228</v>
       </c>
       <c r="I624" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="J624" t="s">
         <v>99</v>
@@ -35587,7 +35594,7 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B625" t="s">
         <v>377</v>
@@ -35609,7 +35616,7 @@
         <v>228</v>
       </c>
       <c r="I625" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="J625" t="s">
         <v>178</v>
@@ -35635,7 +35642,7 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B626" t="s">
         <v>111</v>
@@ -35657,7 +35664,7 @@
         <v>228</v>
       </c>
       <c r="I626" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="J626" t="s">
         <v>109</v>
@@ -35683,7 +35690,7 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B627" t="s">
         <v>151</v>
@@ -35705,7 +35712,7 @@
         <v>228</v>
       </c>
       <c r="I627" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="J627" t="s">
         <v>18</v>
@@ -35731,7 +35738,7 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B628" t="s">
         <v>500</v>
@@ -35753,7 +35760,7 @@
         <v>228</v>
       </c>
       <c r="I628" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="J628" t="s">
         <v>249</v>
@@ -35779,7 +35786,7 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B629" t="s">
         <v>17</v>
@@ -35801,7 +35808,7 @@
         <v>602</v>
       </c>
       <c r="I629" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="J629" t="s">
         <v>17</v>
@@ -35827,7 +35834,7 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B630" t="s">
         <v>17</v>
@@ -35849,7 +35856,7 @@
         <v>602</v>
       </c>
       <c r="I630" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="J630" t="s">
         <v>17</v>
@@ -35875,7 +35882,7 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B631" t="s">
         <v>527</v>
@@ -35923,7 +35930,7 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B632" t="s">
         <v>1122</v>
@@ -35971,7 +35978,7 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B633" t="s">
         <v>195</v>
@@ -36019,7 +36026,7 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B634" t="s">
         <v>547</v>
@@ -36041,7 +36048,7 @@
         <v>247</v>
       </c>
       <c r="I634" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="J634" t="s">
         <v>18</v>
@@ -36067,7 +36074,7 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B635" t="s">
         <v>143</v>
@@ -36089,7 +36096,7 @@
         <v>247</v>
       </c>
       <c r="I635" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="J635" t="s">
         <v>249</v>
@@ -36115,7 +36122,7 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B636" t="s">
         <v>251</v>
@@ -36137,7 +36144,7 @@
         <v>247</v>
       </c>
       <c r="I636" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="J636" t="s">
         <v>249</v>
@@ -36163,7 +36170,7 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B637" t="s">
         <v>40</v>
@@ -36185,7 +36192,7 @@
         <v>247</v>
       </c>
       <c r="I637" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="J637" t="s">
         <v>249</v>
@@ -36211,7 +36218,7 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B638" t="s">
         <v>258</v>
@@ -36233,7 +36240,7 @@
         <v>247</v>
       </c>
       <c r="I638" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="J638" t="s">
         <v>249</v>
@@ -36259,7 +36266,7 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B639" t="s">
         <v>547</v>
@@ -36283,7 +36290,7 @@
         <v>247</v>
       </c>
       <c r="I639" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="J639" t="s">
         <v>18</v>
@@ -36309,7 +36316,7 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B640" t="s">
         <v>143</v>
@@ -36333,7 +36340,7 @@
         <v>247</v>
       </c>
       <c r="I640" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="J640" t="s">
         <v>249</v>
@@ -36359,7 +36366,7 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B641" t="s">
         <v>251</v>
@@ -36383,7 +36390,7 @@
         <v>247</v>
       </c>
       <c r="I641" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="J641" t="s">
         <v>249</v>
@@ -36409,7 +36416,7 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B642" t="s">
         <v>40</v>
@@ -36433,7 +36440,7 @@
         <v>247</v>
       </c>
       <c r="I642" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="J642" t="s">
         <v>249</v>
@@ -36459,7 +36466,7 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B643" t="s">
         <v>258</v>
@@ -36483,7 +36490,7 @@
         <v>247</v>
       </c>
       <c r="I643" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="J643" t="s">
         <v>249</v>
@@ -36509,7 +36516,7 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B644" t="s">
         <v>96</v>
@@ -36559,7 +36566,7 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B645" t="s">
         <v>96</v>
@@ -36607,7 +36614,7 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B646" t="s">
         <v>527</v>
@@ -36655,7 +36662,7 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B647" t="s">
         <v>1122</v>
@@ -36703,7 +36710,7 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B648" t="s">
         <v>195</v>
@@ -36751,7 +36758,7 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B649" t="s">
         <v>310</v>
@@ -36773,7 +36780,7 @@
         <v>23</v>
       </c>
       <c r="I649" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="J649" t="s">
         <v>313</v>
@@ -36799,7 +36806,7 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B650" t="s">
         <v>36</v>
@@ -36821,7 +36828,7 @@
         <v>59</v>
       </c>
       <c r="I650" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="J650" t="s">
         <v>32</v>
@@ -36847,7 +36854,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B651" t="s">
         <v>310</v>
@@ -36869,7 +36876,7 @@
         <v>23</v>
       </c>
       <c r="I651" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="J651" t="s">
         <v>313</v>
@@ -36895,7 +36902,7 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B652" t="s">
         <v>313</v>
@@ -36916,10 +36923,10 @@
         <v>22</v>
       </c>
       <c r="H652" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I652" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J652" t="s">
         <v>357</v>
@@ -36945,7 +36952,7 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B653" t="s">
         <v>313</v>
@@ -36966,10 +36973,10 @@
         <v>1211</v>
       </c>
       <c r="H653" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I653" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J653" t="s">
         <v>357</v>
@@ -36995,7 +37002,7 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B654" t="s">
         <v>1209</v>
@@ -37016,10 +37023,10 @@
         <v>22</v>
       </c>
       <c r="H654" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I654" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J654" t="s">
         <v>109</v>
@@ -37045,7 +37052,7 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B655" t="s">
         <v>1209</v>
@@ -37066,10 +37073,10 @@
         <v>1211</v>
       </c>
       <c r="H655" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I655" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J655" t="s">
         <v>109</v>
@@ -37095,7 +37102,7 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B656" t="s">
         <v>1215</v>
@@ -37116,10 +37123,10 @@
         <v>22</v>
       </c>
       <c r="H656" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I656" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J656" t="s">
         <v>18</v>
@@ -37145,7 +37152,7 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B657" t="s">
         <v>1215</v>
@@ -37166,10 +37173,10 @@
         <v>1211</v>
       </c>
       <c r="H657" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I657" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J657" t="s">
         <v>18</v>
@@ -37195,7 +37202,7 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B658" t="s">
         <v>1218</v>
@@ -37216,10 +37223,10 @@
         <v>22</v>
       </c>
       <c r="H658" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I658" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J658" t="s">
         <v>18</v>
@@ -37245,7 +37252,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B659" t="s">
         <v>1218</v>
@@ -37266,10 +37273,10 @@
         <v>1211</v>
       </c>
       <c r="H659" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I659" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J659" t="s">
         <v>18</v>
@@ -37295,7 +37302,7 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B660" t="s">
         <v>1221</v>
@@ -37316,10 +37323,10 @@
         <v>22</v>
       </c>
       <c r="H660" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I660" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J660" t="s">
         <v>249</v>
@@ -37345,7 +37352,7 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B661" t="s">
         <v>1221</v>
@@ -37366,10 +37373,10 @@
         <v>1211</v>
       </c>
       <c r="H661" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="I661" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="J661" t="s">
         <v>249</v>
@@ -37395,7 +37402,7 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B662" t="s">
         <v>17</v>
@@ -37419,7 +37426,7 @@
         <v>23</v>
       </c>
       <c r="I662" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="J662" t="s">
         <v>17</v>
@@ -37445,7 +37452,7 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B663" t="s">
         <v>17</v>
@@ -37469,7 +37476,7 @@
         <v>23</v>
       </c>
       <c r="I663" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="J663" t="s">
         <v>17</v>
@@ -37495,7 +37502,7 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B664" t="s">
         <v>17</v>
@@ -37519,7 +37526,7 @@
         <v>23</v>
       </c>
       <c r="I664" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="J664" t="s">
         <v>17</v>
@@ -37545,7 +37552,7 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B665" t="s">
         <v>17</v>
@@ -37569,7 +37576,7 @@
         <v>23</v>
       </c>
       <c r="I665" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="J665" t="s">
         <v>17</v>
@@ -37595,12 +37602,14 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B666" t="s">
-        <v>377</v>
-      </c>
-      <c r="C666"/>
+        <v>117</v>
+      </c>
+      <c r="C666" t="s">
+        <v>18</v>
+      </c>
       <c r="D666" t="s">
         <v>19</v>
       </c>
@@ -37617,22 +37626,22 @@
         <v>228</v>
       </c>
       <c r="I666" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="J666" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="K666" t="s">
-        <v>139</v>
+        <v>357</v>
       </c>
       <c r="L666" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="M666" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="N666" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="O666" t="s">
         <v>25</v>
@@ -37643,12 +37652,14 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B667" t="s">
-        <v>111</v>
-      </c>
-      <c r="C667"/>
+        <v>90</v>
+      </c>
+      <c r="C667" t="s">
+        <v>18</v>
+      </c>
       <c r="D667" t="s">
         <v>19</v>
       </c>
@@ -37665,22 +37676,22 @@
         <v>228</v>
       </c>
       <c r="I667" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="J667" t="s">
+        <v>18</v>
+      </c>
+      <c r="K667" t="s">
         <v>109</v>
       </c>
-      <c r="K667" t="s">
-        <v>178</v>
-      </c>
       <c r="L667" t="s">
+        <v>99</v>
+      </c>
+      <c r="M667" t="s">
         <v>110</v>
       </c>
-      <c r="M667" t="s">
-        <v>179</v>
-      </c>
       <c r="N667" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="O667" t="s">
         <v>29</v>
@@ -37691,12 +37702,14 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B668" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C668"/>
+        <v>151</v>
+      </c>
+      <c r="C668" t="s">
+        <v>18</v>
+      </c>
       <c r="D668" t="s">
         <v>19</v>
       </c>
@@ -37713,7 +37726,7 @@
         <v>228</v>
       </c>
       <c r="I668" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="J668" t="s">
         <v>18</v>
@@ -37739,12 +37752,14 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B669" t="s">
-        <v>151</v>
-      </c>
-      <c r="C669"/>
+        <v>1250</v>
+      </c>
+      <c r="C669" t="s">
+        <v>18</v>
+      </c>
       <c r="D669" t="s">
         <v>19</v>
       </c>
@@ -37752,7 +37767,7 @@
         <v>20</v>
       </c>
       <c r="F669" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G669" t="s">
         <v>34</v>
@@ -37761,13 +37776,13 @@
         <v>228</v>
       </c>
       <c r="I669" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="J669" t="s">
         <v>18</v>
       </c>
       <c r="K669" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="L669" t="s">
         <v>99</v>
@@ -37787,12 +37802,14 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B670" t="s">
-        <v>46</v>
-      </c>
-      <c r="C670"/>
+        <v>143</v>
+      </c>
+      <c r="C670" t="s">
+        <v>18</v>
+      </c>
       <c r="D670" t="s">
         <v>19</v>
       </c>
@@ -37800,7 +37817,7 @@
         <v>20</v>
       </c>
       <c r="F670" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G670" t="s">
         <v>34</v>
@@ -37809,22 +37826,22 @@
         <v>228</v>
       </c>
       <c r="I670" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="J670" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="K670" t="s">
         <v>18</v>
       </c>
       <c r="L670" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="M670" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="N670" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="O670" t="s">
         <v>29</v>
@@ -37835,7 +37852,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B671" t="s">
         <v>527</v>
@@ -37857,7 +37874,7 @@
         <v>228</v>
       </c>
       <c r="I671" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="J671" t="s">
         <v>109</v>
@@ -37883,7 +37900,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B672" t="s">
         <v>111</v>
@@ -37905,7 +37922,7 @@
         <v>228</v>
       </c>
       <c r="I672" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="J672" t="s">
         <v>109</v>
@@ -37931,7 +37948,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B673" t="s">
         <v>151</v>
@@ -37953,7 +37970,7 @@
         <v>228</v>
       </c>
       <c r="I673" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="J673" t="s">
         <v>18</v>
@@ -37979,7 +37996,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B674" t="s">
         <v>195</v>
@@ -38001,7 +38018,7 @@
         <v>228</v>
       </c>
       <c r="I674" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="J674" t="s">
         <v>18</v>
@@ -38027,7 +38044,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B675" t="s">
         <v>500</v>
@@ -38049,7 +38066,7 @@
         <v>228</v>
       </c>
       <c r="I675" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="J675" t="s">
         <v>249</v>
@@ -38075,7 +38092,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B676" t="s">
         <v>207</v>
@@ -38097,7 +38114,7 @@
         <v>233</v>
       </c>
       <c r="I676" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="J676" t="s">
         <v>178</v>
@@ -38123,7 +38140,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B677" t="s">
         <v>310</v>
@@ -38145,7 +38162,7 @@
         <v>23</v>
       </c>
       <c r="I677" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="J677" t="s">
         <v>313</v>
@@ -38171,7 +38188,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B678" t="s">
         <v>17</v>
@@ -38195,7 +38212,7 @@
         <v>23</v>
       </c>
       <c r="I678" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="J678" t="s">
         <v>17</v>
@@ -38221,7 +38238,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B679" t="s">
         <v>17</v>
@@ -38245,7 +38262,7 @@
         <v>23</v>
       </c>
       <c r="I679" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="J679" t="s">
         <v>17</v>
@@ -38271,7 +38288,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B680" t="s">
         <v>17</v>
@@ -38295,7 +38312,7 @@
         <v>23</v>
       </c>
       <c r="I680" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="J680" t="s">
         <v>17</v>
@@ -38321,7 +38338,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B681" t="s">
         <v>17</v>
@@ -38345,7 +38362,7 @@
         <v>23</v>
       </c>
       <c r="I681" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="J681" t="s">
         <v>17</v>
@@ -38371,7 +38388,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B682" t="s">
         <v>310</v>
@@ -38393,7 +38410,7 @@
         <v>23</v>
       </c>
       <c r="I682" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="J682" t="s">
         <v>313</v>
@@ -38419,7 +38436,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B683" t="s">
         <v>310</v>
@@ -38441,7 +38458,7 @@
         <v>23</v>
       </c>
       <c r="I683" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="J683" t="s">
         <v>313</v>
@@ -38467,7 +38484,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B684" t="s">
         <v>32</v>
@@ -38489,7 +38506,7 @@
         <v>23</v>
       </c>
       <c r="I684" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="J684" t="s">
         <v>36</v>
@@ -38515,7 +38532,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B685" t="s">
         <v>310</v>
@@ -38537,7 +38554,7 @@
         <v>23</v>
       </c>
       <c r="I685" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="J685" t="s">
         <v>313</v>
@@ -38563,7 +38580,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B686" t="s">
         <v>310</v>
@@ -38585,7 +38602,7 @@
         <v>23</v>
       </c>
       <c r="I686" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="J686" t="s">
         <v>313</v>
@@ -38611,7 +38628,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B687" t="s">
         <v>310</v>
@@ -38633,7 +38650,7 @@
         <v>23</v>
       </c>
       <c r="I687" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="J687" t="s">
         <v>313</v>
@@ -38659,7 +38676,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B688" t="s">
         <v>42</v>
@@ -38681,7 +38698,7 @@
         <v>23</v>
       </c>
       <c r="I688" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="J688" t="s">
         <v>45</v>
@@ -38707,7 +38724,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B689" t="s">
         <v>36</v>
@@ -38729,7 +38746,7 @@
         <v>228</v>
       </c>
       <c r="I689" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="J689" t="s">
         <v>32</v>
@@ -38755,7 +38772,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B690" t="s">
         <v>117</v>
@@ -38777,7 +38794,7 @@
         <v>228</v>
       </c>
       <c r="I690" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="J690" t="s">
         <v>109</v>
@@ -38803,7 +38820,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B691" t="s">
         <v>111</v>
@@ -38825,7 +38842,7 @@
         <v>228</v>
       </c>
       <c r="I691" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="J691" t="s">
         <v>109</v>
@@ -38851,7 +38868,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B692" t="s">
         <v>17</v>
@@ -38864,7 +38881,7 @@
         <v>244</v>
       </c>
       <c r="F692" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G692" t="s">
         <v>246</v>
@@ -38873,7 +38890,7 @@
         <v>247</v>
       </c>
       <c r="I692" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="J692" t="s">
         <v>17</v>
@@ -38899,7 +38916,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B693" t="s">
         <v>42</v>
@@ -38921,7 +38938,7 @@
         <v>23</v>
       </c>
       <c r="I693" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="J693" t="s">
         <v>45</v>
@@ -38947,7 +38964,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B694" t="s">
         <v>377</v>
@@ -38969,7 +38986,7 @@
         <v>228</v>
       </c>
       <c r="I694" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="J694" t="s">
         <v>178</v>
@@ -38995,7 +39012,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B695" t="s">
         <v>111</v>
@@ -39017,7 +39034,7 @@
         <v>228</v>
       </c>
       <c r="I695" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="J695" t="s">
         <v>109</v>
@@ -39043,7 +39060,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B696" t="s">
         <v>151</v>
@@ -39065,7 +39082,7 @@
         <v>228</v>
       </c>
       <c r="I696" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="J696" t="s">
         <v>18</v>
@@ -39091,7 +39108,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B697" t="s">
         <v>143</v>
@@ -39113,7 +39130,7 @@
         <v>228</v>
       </c>
       <c r="I697" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="J697" t="s">
         <v>249</v>
@@ -39139,10 +39156,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B698" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="C698"/>
       <c r="D698" t="s">
@@ -39161,22 +39178,22 @@
         <v>228</v>
       </c>
       <c r="I698" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="J698" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="K698" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="L698" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="M698" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="N698" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="O698" t="s">
         <v>29</v>
@@ -39187,7 +39204,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B699" t="s">
         <v>17</v>
@@ -39211,7 +39228,7 @@
         <v>23</v>
       </c>
       <c r="I699" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="J699" t="s">
         <v>17</v>
@@ -39237,7 +39254,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B700" t="s">
         <v>17</v>
@@ -39261,7 +39278,7 @@
         <v>23</v>
       </c>
       <c r="I700" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="J700" t="s">
         <v>17</v>
@@ -39287,7 +39304,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B701" t="s">
         <v>17</v>
@@ -39311,7 +39328,7 @@
         <v>23</v>
       </c>
       <c r="I701" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="J701" t="s">
         <v>17</v>
@@ -39337,7 +39354,7 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B702" t="s">
         <v>17</v>
@@ -39361,7 +39378,7 @@
         <v>23</v>
       </c>
       <c r="I702" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="J702" t="s">
         <v>17</v>
@@ -39387,7 +39404,7 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B703" t="s">
         <v>547</v>
@@ -39437,10 +39454,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B704" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C704" t="s">
         <v>32</v>
@@ -39452,7 +39469,7 @@
         <v>52</v>
       </c>
       <c r="F704" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G704" t="s">
         <v>34</v>
@@ -39467,16 +39484,16 @@
         <v>1215</v>
       </c>
       <c r="K704" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="L704" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="M704" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="N704" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="O704" t="s">
         <v>29</v>
@@ -39487,7 +39504,7 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B705" t="s">
         <v>86</v>
@@ -39509,7 +39526,7 @@
         <v>23</v>
       </c>
       <c r="I705" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="J705" t="s">
         <v>89</v>
@@ -39535,7 +39552,7 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B706" t="s">
         <v>100</v>
@@ -39559,7 +39576,7 @@
         <v>384</v>
       </c>
       <c r="I706" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J706" t="s">
         <v>357</v>
@@ -39585,7 +39602,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B707" t="s">
         <v>37</v>
@@ -39609,7 +39626,7 @@
         <v>384</v>
       </c>
       <c r="I707" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J707" t="s">
         <v>178</v>
@@ -39635,7 +39652,7 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B708" t="s">
         <v>314</v>
@@ -39659,7 +39676,7 @@
         <v>384</v>
       </c>
       <c r="I708" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J708" t="s">
         <v>109</v>
@@ -39685,7 +39702,7 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B709" t="s">
         <v>1235</v>
@@ -39709,7 +39726,7 @@
         <v>384</v>
       </c>
       <c r="I709" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J709" t="s">
         <v>18</v>
@@ -39735,7 +39752,7 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B710" t="s">
         <v>547</v>
@@ -39759,7 +39776,7 @@
         <v>384</v>
       </c>
       <c r="I710" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J710" t="s">
         <v>18</v>
@@ -39785,7 +39802,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B711" t="s">
         <v>865</v>
@@ -39809,7 +39826,7 @@
         <v>384</v>
       </c>
       <c r="I711" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J711" t="s">
         <v>18</v>
@@ -39835,7 +39852,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B712" t="s">
         <v>551</v>
@@ -39859,7 +39876,7 @@
         <v>384</v>
       </c>
       <c r="I712" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J712" t="s">
         <v>18</v>
@@ -39885,7 +39902,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B713" t="s">
         <v>500</v>
@@ -39909,7 +39926,7 @@
         <v>384</v>
       </c>
       <c r="I713" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J713" t="s">
         <v>249</v>
@@ -39935,7 +39952,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B714" t="s">
         <v>175</v>
@@ -39985,7 +40002,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B715" t="s">
         <v>17</v>
@@ -40000,7 +40017,7 @@
         <v>20</v>
       </c>
       <c r="F715" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="G715" t="s">
         <v>1211</v>
@@ -40009,7 +40026,7 @@
         <v>1212</v>
       </c>
       <c r="I715" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="J715" t="s">
         <v>17</v>
@@ -40035,7 +40052,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B716" t="s">
         <v>17</v>
@@ -40050,7 +40067,7 @@
         <v>20</v>
       </c>
       <c r="F716" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="G716" t="s">
         <v>1211</v>
@@ -40059,7 +40076,7 @@
         <v>1212</v>
       </c>
       <c r="I716" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="J716" t="s">
         <v>17</v>
@@ -40085,7 +40102,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B717" t="s">
         <v>17</v>
@@ -40100,7 +40117,7 @@
         <v>20</v>
       </c>
       <c r="F717" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="G717" t="s">
         <v>1211</v>
@@ -40109,7 +40126,7 @@
         <v>1212</v>
       </c>
       <c r="I717" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="J717" t="s">
         <v>17</v>
@@ -40135,7 +40152,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B718" t="s">
         <v>17</v>
@@ -40150,7 +40167,7 @@
         <v>20</v>
       </c>
       <c r="F718" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G718" t="s">
         <v>1211</v>
@@ -40159,7 +40176,7 @@
         <v>1212</v>
       </c>
       <c r="I718" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="J718" t="s">
         <v>17</v>
@@ -40185,7 +40202,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B719" t="s">
         <v>17</v>
@@ -40200,7 +40217,7 @@
         <v>20</v>
       </c>
       <c r="F719" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="G719" t="s">
         <v>1211</v>
@@ -40209,7 +40226,7 @@
         <v>1212</v>
       </c>
       <c r="I719" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="J719" t="s">
         <v>17</v>
@@ -40235,7 +40252,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B720" t="s">
         <v>17</v>
@@ -40250,7 +40267,7 @@
         <v>20</v>
       </c>
       <c r="F720" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="G720" t="s">
         <v>1211</v>
@@ -40259,7 +40276,7 @@
         <v>1212</v>
       </c>
       <c r="I720" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="J720" t="s">
         <v>17</v>
@@ -40285,7 +40302,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B721" t="s">
         <v>17</v>
@@ -40300,7 +40317,7 @@
         <v>20</v>
       </c>
       <c r="F721" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="G721" t="s">
         <v>1211</v>
@@ -40309,7 +40326,7 @@
         <v>1212</v>
       </c>
       <c r="I721" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="J721" t="s">
         <v>17</v>
@@ -40335,7 +40352,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B722" t="s">
         <v>178</v>
@@ -40350,7 +40367,7 @@
         <v>20</v>
       </c>
       <c r="F722" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G722" t="s">
         <v>34</v>
@@ -40359,22 +40376,22 @@
         <v>23</v>
       </c>
       <c r="I722" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="J722" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="K722" t="s">
         <v>111</v>
       </c>
       <c r="L722" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M722" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="N722" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="O722" t="s">
         <v>29</v>
@@ -40385,7 +40402,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B723" t="s">
         <v>57</v>
@@ -40409,7 +40426,7 @@
         <v>59</v>
       </c>
       <c r="I723" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="J723" t="s">
         <v>61</v>
@@ -40435,7 +40452,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B724" t="s">
         <v>17</v>
@@ -40450,7 +40467,7 @@
         <v>20</v>
       </c>
       <c r="F724" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="G724" t="s">
         <v>22</v>
@@ -40485,7 +40502,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B725" t="s">
         <v>17</v>
@@ -40500,7 +40517,7 @@
         <v>20</v>
       </c>
       <c r="F725" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G725" t="s">
         <v>22</v>
@@ -40535,7 +40552,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B726" t="s">
         <v>17</v>
@@ -40550,7 +40567,7 @@
         <v>20</v>
       </c>
       <c r="F726" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="G726" t="s">
         <v>22</v>
@@ -40585,7 +40602,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B727" t="s">
         <v>17</v>
@@ -40600,7 +40617,7 @@
         <v>20</v>
       </c>
       <c r="F727" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G727" t="s">
         <v>22</v>
@@ -40635,7 +40652,7 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B728" t="s">
         <v>57</v>
@@ -40659,7 +40676,7 @@
         <v>59</v>
       </c>
       <c r="I728" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="J728" t="s">
         <v>61</v>
@@ -40685,10 +40702,10 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B729" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="C729"/>
       <c r="D729" t="s">
@@ -40707,22 +40724,22 @@
         <v>23</v>
       </c>
       <c r="I729" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="J729" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="K729" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="L729" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="M729" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="N729" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="O729" t="s">
         <v>94</v>
@@ -40733,10 +40750,10 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B730" t="s">
-        <v>377</v>
+        <v>117</v>
       </c>
       <c r="C730" t="s">
         <v>18</v>
@@ -40757,22 +40774,22 @@
         <v>369</v>
       </c>
       <c r="I730" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J730" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="K730" t="s">
-        <v>139</v>
+        <v>357</v>
       </c>
       <c r="L730" t="s">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="M730" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="N730" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="O730" t="s">
         <v>29</v>
@@ -40783,10 +40800,10 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B731" t="s">
-        <v>527</v>
+        <v>111</v>
       </c>
       <c r="C731" t="s">
         <v>18</v>
@@ -40798,7 +40815,7 @@
         <v>20</v>
       </c>
       <c r="F731" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="G731" t="s">
         <v>34</v>
@@ -40807,13 +40824,13 @@
         <v>369</v>
       </c>
       <c r="I731" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J731" t="s">
         <v>109</v>
       </c>
       <c r="K731" t="s">
-        <v>357</v>
+        <v>178</v>
       </c>
       <c r="L731" t="s">
         <v>110</v>
@@ -40833,10 +40850,10 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B732" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C732" t="s">
         <v>18</v>
@@ -40857,22 +40874,22 @@
         <v>369</v>
       </c>
       <c r="I732" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="J732" t="s">
+        <v>18</v>
+      </c>
+      <c r="K732" t="s">
         <v>109</v>
       </c>
-      <c r="K732" t="s">
-        <v>178</v>
-      </c>
       <c r="L732" t="s">
+        <v>99</v>
+      </c>
+      <c r="M732" t="s">
         <v>110</v>
       </c>
-      <c r="M732" t="s">
-        <v>179</v>
-      </c>
       <c r="N732" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="O732" t="s">
         <v>29</v>
@@ -40883,7 +40900,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B733" t="s">
         <v>113</v>
@@ -40905,7 +40922,7 @@
         <v>23</v>
       </c>
       <c r="I733" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="J733" t="s">
         <v>116</v>
@@ -40931,7 +40948,7 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B734" t="s">
         <v>100</v>
@@ -40955,7 +40972,7 @@
         <v>384</v>
       </c>
       <c r="I734" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J734" t="s">
         <v>357</v>
@@ -40981,7 +40998,7 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B735" t="s">
         <v>37</v>
@@ -41005,7 +41022,7 @@
         <v>384</v>
       </c>
       <c r="I735" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J735" t="s">
         <v>178</v>
@@ -41031,7 +41048,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B736" t="s">
         <v>314</v>
@@ -41055,7 +41072,7 @@
         <v>384</v>
       </c>
       <c r="I736" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J736" t="s">
         <v>109</v>
@@ -41081,7 +41098,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B737" t="s">
         <v>1235</v>
@@ -41105,7 +41122,7 @@
         <v>384</v>
       </c>
       <c r="I737" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J737" t="s">
         <v>18</v>
@@ -41131,7 +41148,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B738" t="s">
         <v>547</v>
@@ -41155,7 +41172,7 @@
         <v>384</v>
       </c>
       <c r="I738" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J738" t="s">
         <v>18</v>
@@ -41181,7 +41198,7 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B739" t="s">
         <v>865</v>
@@ -41205,7 +41222,7 @@
         <v>384</v>
       </c>
       <c r="I739" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J739" t="s">
         <v>18</v>
@@ -41231,7 +41248,7 @@
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B740" t="s">
         <v>551</v>
@@ -41255,7 +41272,7 @@
         <v>384</v>
       </c>
       <c r="I740" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J740" t="s">
         <v>18</v>
@@ -41281,7 +41298,7 @@
     </row>
     <row r="741">
       <c r="A741" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B741" t="s">
         <v>500</v>
@@ -41305,7 +41322,7 @@
         <v>384</v>
       </c>
       <c r="I741" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="J741" t="s">
         <v>249</v>
@@ -41331,10 +41348,10 @@
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B742" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="C742"/>
       <c r="D742" t="s">
@@ -41353,22 +41370,22 @@
         <v>23</v>
       </c>
       <c r="I742" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="J742" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="K742" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="L742" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="M742" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="N742" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="O742" t="s">
         <v>94</v>
@@ -41379,10 +41396,10 @@
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B743" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="C743"/>
       <c r="D743" t="s">
@@ -41401,22 +41418,22 @@
         <v>23</v>
       </c>
       <c r="I743" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="J743" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="K743" t="s">
-        <v>17</v>
+        <v>314</v>
       </c>
       <c r="L743" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="M743" t="s">
-        <v>17</v>
+        <v>316</v>
       </c>
       <c r="N743" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="O743" t="s">
         <v>25</v>
@@ -41427,7 +41444,7 @@
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B744" t="s">
         <v>143</v>
@@ -41475,7 +41492,7 @@
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B745" t="s">
         <v>251</v>
@@ -41523,7 +41540,7 @@
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B746" t="s">
         <v>32</v>
@@ -41545,7 +41562,7 @@
         <v>23</v>
       </c>
       <c r="I746" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="J746" t="s">
         <v>36</v>
@@ -41571,7 +41588,7 @@
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B747" t="s">
         <v>32</v>
@@ -41593,7 +41610,7 @@
         <v>23</v>
       </c>
       <c r="I747" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="J747" t="s">
         <v>36</v>
@@ -41619,7 +41636,7 @@
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B748" t="s">
         <v>17</v>
@@ -41641,7 +41658,7 @@
         <v>602</v>
       </c>
       <c r="I748" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="J748" t="s">
         <v>17</v>
@@ -41667,7 +41684,7 @@
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B749" t="s">
         <v>66</v>
@@ -41691,7 +41708,7 @@
         <v>59</v>
       </c>
       <c r="I749" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="J749" t="s">
         <v>69</v>
@@ -41717,7 +41734,7 @@
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B750" t="s">
         <v>57</v>
@@ -41741,7 +41758,7 @@
         <v>59</v>
       </c>
       <c r="I750" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="J750" t="s">
         <v>61</v>
@@ -41767,7 +41784,7 @@
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B751" t="s">
         <v>17</v>
@@ -41791,7 +41808,7 @@
         <v>247</v>
       </c>
       <c r="I751" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J751" t="s">
         <v>17</v>
@@ -41817,7 +41834,7 @@
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B752" t="s">
         <v>17</v>
@@ -41841,7 +41858,7 @@
         <v>247</v>
       </c>
       <c r="I752" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J752" t="s">
         <v>17</v>
@@ -41867,7 +41884,7 @@
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B753" t="s">
         <v>17</v>
@@ -41882,7 +41899,7 @@
         <v>244</v>
       </c>
       <c r="F753" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G753" t="s">
         <v>246</v>
@@ -41891,7 +41908,7 @@
         <v>247</v>
       </c>
       <c r="I753" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J753" t="s">
         <v>17</v>
@@ -41917,7 +41934,7 @@
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B754" t="s">
         <v>17</v>
@@ -41941,7 +41958,7 @@
         <v>247</v>
       </c>
       <c r="I754" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="J754" t="s">
         <v>17</v>
@@ -41967,7 +41984,7 @@
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B755" t="s">
         <v>32</v>
@@ -41991,7 +42008,7 @@
         <v>23</v>
       </c>
       <c r="I755" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="J755" t="s">
         <v>36</v>
@@ -42017,7 +42034,7 @@
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B756" t="s">
         <v>17</v>
@@ -42041,7 +42058,7 @@
         <v>602</v>
       </c>
       <c r="I756" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="J756" t="s">
         <v>17</v>
@@ -42067,7 +42084,7 @@
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B757" t="s">
         <v>17</v>
@@ -42091,7 +42108,7 @@
         <v>602</v>
       </c>
       <c r="I757" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="J757" t="s">
         <v>17</v>
@@ -42117,7 +42134,7 @@
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B758" t="s">
         <v>17</v>
@@ -42141,7 +42158,7 @@
         <v>602</v>
       </c>
       <c r="I758" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="J758" t="s">
         <v>17</v>
@@ -42167,7 +42184,7 @@
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B759" t="s">
         <v>113</v>
@@ -42191,7 +42208,7 @@
         <v>23</v>
       </c>
       <c r="I759" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="J759" t="s">
         <v>116</v>
@@ -42217,7 +42234,7 @@
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B760" t="s">
         <v>323</v>
@@ -42232,7 +42249,7 @@
         <v>52</v>
       </c>
       <c r="F760" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G760" t="s">
         <v>34</v>
@@ -42241,7 +42258,7 @@
         <v>59</v>
       </c>
       <c r="I760" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="J760" t="s">
         <v>326</v>
@@ -42267,7 +42284,7 @@
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B761" t="s">
         <v>17</v>
@@ -42282,7 +42299,7 @@
         <v>298</v>
       </c>
       <c r="F761" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="G761" t="s">
         <v>34</v>
@@ -42291,7 +42308,7 @@
         <v>23</v>
       </c>
       <c r="I761" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="J761" t="s">
         <v>17</v>
@@ -42317,7 +42334,7 @@
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B762" t="s">
         <v>17</v>
@@ -42367,7 +42384,7 @@
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B763" t="s">
         <v>17</v>
@@ -42417,7 +42434,7 @@
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B764" t="s">
         <v>17</v>
@@ -42467,7 +42484,7 @@
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B765" t="s">
         <v>17</v>
@@ -42517,7 +42534,7 @@
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B766" t="s">
         <v>17</v>
@@ -42532,7 +42549,7 @@
         <v>20</v>
       </c>
       <c r="F766" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G766" t="s">
         <v>1211</v>
@@ -42567,7 +42584,7 @@
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B767" t="s">
         <v>17</v>
@@ -42582,7 +42599,7 @@
         <v>20</v>
       </c>
       <c r="F767" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="G767" t="s">
         <v>1211</v>
@@ -42617,7 +42634,7 @@
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B768" t="s">
         <v>17</v>
@@ -42632,7 +42649,7 @@
         <v>20</v>
       </c>
       <c r="F768" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="G768" t="s">
         <v>22</v>
@@ -42667,7 +42684,7 @@
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B769" t="s">
         <v>17</v>
@@ -42682,7 +42699,7 @@
         <v>20</v>
       </c>
       <c r="F769" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G769" t="s">
         <v>22</v>
@@ -42717,7 +42734,7 @@
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B770" t="s">
         <v>17</v>
@@ -42767,7 +42784,7 @@
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B771" t="s">
         <v>17</v>
@@ -42817,7 +42834,7 @@
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B772" t="s">
         <v>17</v>
@@ -42867,7 +42884,7 @@
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B773" t="s">
         <v>17</v>
@@ -42917,7 +42934,7 @@
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B774" t="s">
         <v>17</v>
@@ -42932,7 +42949,7 @@
         <v>20</v>
       </c>
       <c r="F774" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="G774" t="s">
         <v>1211</v>
@@ -42967,7 +42984,7 @@
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B775" t="s">
         <v>17</v>
@@ -42982,7 +42999,7 @@
         <v>20</v>
       </c>
       <c r="F775" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="G775" t="s">
         <v>22</v>
@@ -43017,7 +43034,7 @@
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B776" t="s">
         <v>17</v>
@@ -43032,7 +43049,7 @@
         <v>20</v>
       </c>
       <c r="F776" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G776" t="s">
         <v>1211</v>
@@ -43067,7 +43084,7 @@
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B777" t="s">
         <v>17</v>
@@ -43082,7 +43099,7 @@
         <v>20</v>
       </c>
       <c r="F777" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G777" t="s">
         <v>22</v>
@@ -43117,7 +43134,7 @@
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B778" t="s">
         <v>32</v>
@@ -43141,7 +43158,7 @@
         <v>23</v>
       </c>
       <c r="I778" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="J778" t="s">
         <v>36</v>
@@ -43167,7 +43184,7 @@
     </row>
     <row r="779">
       <c r="A779" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B779" t="s">
         <v>57</v>
@@ -43191,7 +43208,7 @@
         <v>54</v>
       </c>
       <c r="I779" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="J779" t="s">
         <v>61</v>
